--- a/Data/2025_upperhouse_election_constituency_system_cleaning.xlsx
+++ b/Data/2025_upperhouse_election_constituency_system_cleaning.xlsx
@@ -2379,7 +2379,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>ITエンジニア</t>
+          <t>コンサルタント</t>
         </is>
       </c>
     </row>
@@ -5619,7 +5619,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>ITエンジニア</t>
+          <t>コンサルタント</t>
         </is>
       </c>
     </row>
@@ -6123,7 +6123,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>ITエンジニア</t>
+          <t>コンサルタント</t>
         </is>
       </c>
     </row>
@@ -8355,7 +8355,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>ITエンジニア</t>
+          <t>コンサルタント</t>
         </is>
       </c>
     </row>

--- a/Data/2025_upperhouse_election_constituency_system_cleaning.xlsx
+++ b/Data/2025_upperhouse_election_constituency_system_cleaning.xlsx
@@ -1743,7 +1743,7 @@
     <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="6" width="20.290714285714284" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="17" max="17" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="18" max="18" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
